--- a/allen_data/dev_human/normalized_genes/rearranged_columns_metadata.xlsx
+++ b/allen_data/dev_human/normalized_genes/rearranged_columns_metadata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="138">
   <si>
     <t>column_num</t>
   </si>
@@ -434,13 +434,13 @@
     <t>40 yrs</t>
   </si>
   <si>
-    <t>keep?</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>structure aka</t>
+    <t>sample num</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -699,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -760,6 +816,34 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -820,6 +904,34 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1100,20 +1212,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG525"/>
+  <dimension ref="A1:J525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AG33" sqref="AG33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="54.33203125" customWidth="1"/>
-    <col min="10" max="10" width="47" customWidth="1"/>
-    <col min="11" max="33" width="36.5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1171,79 +1282,13 @@
         <v>12</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1269,79 +1314,13 @@
         <v>14</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1367,79 +1346,13 @@
         <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1465,79 +1378,13 @@
         <v>18</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1563,79 +1410,13 @@
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1661,79 +1442,13 @@
         <v>22</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1759,79 +1474,13 @@
         <v>24</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1857,79 +1506,13 @@
         <v>26</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1955,79 +1538,13 @@
         <v>28</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2053,79 +1570,13 @@
         <v>30</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2151,79 +1602,13 @@
         <v>32</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG12" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2249,79 +1634,13 @@
         <v>34</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2347,79 +1666,13 @@
         <v>36</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2445,76 +1698,13 @@
         <v>38</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG15" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2540,55 +1730,13 @@
         <v>40</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2614,49 +1762,13 @@
         <v>42</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2682,10 +1794,13 @@
         <v>30</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2711,10 +1826,13 @@
         <v>28</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2740,10 +1858,13 @@
         <v>16</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2769,10 +1890,13 @@
         <v>26</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2798,10 +1922,13 @@
         <v>22</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2827,10 +1954,13 @@
         <v>34</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2856,10 +1986,13 @@
         <v>14</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2885,10 +2018,13 @@
         <v>18</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2914,10 +2050,13 @@
         <v>46</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2943,10 +2082,13 @@
         <v>38</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2972,10 +2114,13 @@
         <v>12</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3001,10 +2146,13 @@
         <v>24</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3030,10 +2178,13 @@
         <v>32</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3059,10 +2210,13 @@
         <v>42</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3088,7 +2242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3114,7 +2268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3140,7 +2294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3166,7 +2320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3192,7 +2346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3218,7 +2372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3244,7 +2398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3270,7 +2424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3296,7 +2450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3322,7 +2476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3348,7 +2502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3374,7 +2528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3400,7 +2554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3426,7 +2580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3452,7 +2606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3478,10 +2632,13 @@
         <v>20</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3507,10 +2664,13 @@
         <v>53</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3536,10 +2696,13 @@
         <v>51</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3565,10 +2728,13 @@
         <v>64</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3594,10 +2760,13 @@
         <v>36</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3623,10 +2792,13 @@
         <v>59</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3652,10 +2824,13 @@
         <v>61</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3681,10 +2856,13 @@
         <v>26</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3710,10 +2888,13 @@
         <v>38</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3739,10 +2920,13 @@
         <v>30</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3768,10 +2952,13 @@
         <v>32</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3797,10 +2984,13 @@
         <v>57</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3826,10 +3016,13 @@
         <v>40</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3855,10 +3048,13 @@
         <v>16</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3884,10 +3080,13 @@
         <v>55</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3913,7 +3112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3939,7 +3138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3965,7 +3164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3991,7 +3190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4017,7 +3216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4043,7 +3242,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4069,7 +3268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4095,7 +3294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4121,7 +3320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4147,7 +3346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4173,7 +3372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4199,7 +3398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4225,7 +3424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4251,7 +3450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4277,7 +3476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4303,10 +3502,13 @@
         <v>55</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4332,10 +3534,13 @@
         <v>57</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4361,10 +3566,13 @@
         <v>16</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4390,10 +3598,13 @@
         <v>61</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4419,10 +3630,13 @@
         <v>53</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4448,10 +3662,13 @@
         <v>51</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4477,10 +3694,13 @@
         <v>38</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4506,10 +3726,13 @@
         <v>40</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4535,10 +3758,13 @@
         <v>28</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4564,10 +3790,13 @@
         <v>20</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4593,10 +3822,13 @@
         <v>32</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4622,10 +3854,13 @@
         <v>59</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4651,10 +3886,13 @@
         <v>30</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4680,10 +3918,13 @@
         <v>36</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4709,7 +3950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4735,7 +3976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4761,7 +4002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4787,7 +4028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -4813,7 +4054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5671,7 +4912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -5697,7 +4938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -5723,7 +4964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -5749,10 +4990,13 @@
         <v>40</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -5778,10 +5022,13 @@
         <v>20</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -5807,10 +5054,13 @@
         <v>59</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -5836,10 +5086,13 @@
         <v>51</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -5865,10 +5118,13 @@
         <v>72</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -5894,10 +5150,13 @@
         <v>16</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -5923,10 +5182,13 @@
         <v>53</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -5952,10 +5214,13 @@
         <v>36</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -5981,10 +5246,13 @@
         <v>67</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -6010,10 +5278,13 @@
         <v>38</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -6039,10 +5310,13 @@
         <v>55</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -6068,10 +5342,13 @@
         <v>32</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -6097,10 +5374,13 @@
         <v>30</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -6126,10 +5406,13 @@
         <v>57</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -6155,10 +5438,13 @@
         <v>28</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -6184,10 +5470,13 @@
         <v>61</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -6213,7 +5502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -6239,7 +5528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -6265,7 +5554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -6291,7 +5580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -6317,7 +5606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -6343,7 +5632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -6369,7 +5658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -6395,7 +5684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -6421,7 +5710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -6447,7 +5736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -6473,7 +5762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -6499,7 +5788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -6525,7 +5814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -6551,10 +5840,13 @@
         <v>55</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -6580,10 +5872,13 @@
         <v>20</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -6609,10 +5904,13 @@
         <v>72</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -6638,10 +5936,13 @@
         <v>51</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -6667,10 +5968,13 @@
         <v>38</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -6696,10 +6000,13 @@
         <v>30</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -6725,10 +6032,13 @@
         <v>40</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -6754,10 +6064,13 @@
         <v>59</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -6783,10 +6096,13 @@
         <v>14</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -6812,10 +6128,13 @@
         <v>53</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -6841,10 +6160,13 @@
         <v>67</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -6870,10 +6192,13 @@
         <v>32</v>
       </c>
       <c r="I171" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -6899,10 +6224,13 @@
         <v>16</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -6928,10 +6256,13 @@
         <v>28</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -6957,7 +6288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -6983,7 +6314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -7009,7 +6340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -7035,7 +6366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -7061,7 +6392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -7087,7 +6418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -7113,7 +6444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -7139,7 +6470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -7165,7 +6496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -7191,7 +6522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -7217,7 +6548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -7243,7 +6574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -7269,7 +6600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -7295,10 +6626,13 @@
         <v>28</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -7324,10 +6658,13 @@
         <v>57</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -7353,10 +6690,13 @@
         <v>55</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -7382,10 +6722,13 @@
         <v>38</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -7411,10 +6754,13 @@
         <v>20</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -7440,10 +6786,13 @@
         <v>36</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -7469,10 +6818,13 @@
         <v>16</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -7498,10 +6850,13 @@
         <v>40</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -7527,10 +6882,13 @@
         <v>32</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -7556,10 +6914,13 @@
         <v>53</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -7585,10 +6946,13 @@
         <v>61</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -7614,10 +6978,13 @@
         <v>67</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -7643,10 +7010,13 @@
         <v>59</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -7672,10 +7042,13 @@
         <v>30</v>
       </c>
       <c r="I200" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="9">
         <v>200</v>
       </c>
@@ -7701,10 +7074,13 @@
         <v>38</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="9">
         <v>201</v>
       </c>
@@ -7730,10 +7106,13 @@
         <v>16</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="9">
         <v>202</v>
       </c>
@@ -7759,10 +7138,13 @@
         <v>30</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="9">
         <v>203</v>
       </c>
@@ -7788,10 +7170,13 @@
         <v>61</v>
       </c>
       <c r="I204" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>204</v>
       </c>
@@ -7817,10 +7202,13 @@
         <v>72</v>
       </c>
       <c r="I205" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="9">
         <v>205</v>
       </c>
@@ -7846,10 +7234,13 @@
         <v>55</v>
       </c>
       <c r="I206" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
         <v>206</v>
       </c>
@@ -7875,10 +7266,13 @@
         <v>51</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="9">
         <v>207</v>
       </c>
@@ -7904,10 +7298,13 @@
         <v>59</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>208</v>
       </c>
@@ -7933,10 +7330,13 @@
         <v>32</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="9">
         <v>209</v>
       </c>
@@ -7962,10 +7362,13 @@
         <v>20</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J210">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>210</v>
       </c>
@@ -7991,10 +7394,13 @@
         <v>36</v>
       </c>
       <c r="I211" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="9">
         <v>211</v>
       </c>
@@ -8020,10 +7426,13 @@
         <v>40</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="9">
         <v>212</v>
       </c>
@@ -8049,10 +7458,13 @@
         <v>57</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="9">
         <v>213</v>
       </c>
@@ -8078,10 +7490,13 @@
         <v>28</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J214">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="9">
         <v>214</v>
       </c>
@@ -8107,10 +7522,13 @@
         <v>67</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="9">
         <v>215</v>
       </c>
@@ -8136,10 +7554,13 @@
         <v>53</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -8165,7 +7586,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -8191,7 +7612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -8217,7 +7638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -8243,7 +7664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -8269,7 +7690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -8295,7 +7716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -8321,10 +7742,13 @@
         <v>51</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J223">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -8350,10 +7774,13 @@
         <v>32</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J224">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -8379,10 +7806,13 @@
         <v>16</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J225">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -8408,10 +7838,13 @@
         <v>53</v>
       </c>
       <c r="I226" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -8437,10 +7870,13 @@
         <v>28</v>
       </c>
       <c r="I227" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J227">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -8466,10 +7902,13 @@
         <v>72</v>
       </c>
       <c r="I228" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J228">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -8495,10 +7934,13 @@
         <v>67</v>
       </c>
       <c r="I229" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -8524,10 +7966,13 @@
         <v>55</v>
       </c>
       <c r="I230" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J230">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -8553,10 +7998,13 @@
         <v>59</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J231">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -8582,10 +8030,13 @@
         <v>36</v>
       </c>
       <c r="I232" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J232">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -8611,10 +8062,13 @@
         <v>61</v>
       </c>
       <c r="I233" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J233">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -8640,10 +8094,13 @@
         <v>30</v>
       </c>
       <c r="I234" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J234">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -8669,10 +8126,13 @@
         <v>20</v>
       </c>
       <c r="I235" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J235">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -8698,10 +8158,13 @@
         <v>57</v>
       </c>
       <c r="I236" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J236">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -8727,10 +8190,13 @@
         <v>40</v>
       </c>
       <c r="I237" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J237">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -8756,10 +8222,13 @@
         <v>38</v>
       </c>
       <c r="I238" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J238">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -8785,7 +8254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -8811,7 +8280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -8837,7 +8306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -8863,7 +8332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -8889,7 +8358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -8915,7 +8384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -8941,7 +8410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -8967,7 +8436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -8993,7 +8462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -9019,7 +8488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -9045,7 +8514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -9071,7 +8540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -9097,7 +8566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -9123,7 +8592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -9149,7 +8618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -9175,7 +8644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -9201,7 +8670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -9227,10 +8696,13 @@
         <v>57</v>
       </c>
       <c r="I256" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -9256,10 +8728,13 @@
         <v>72</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -9285,10 +8760,13 @@
         <v>32</v>
       </c>
       <c r="I258" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -9314,10 +8792,13 @@
         <v>55</v>
       </c>
       <c r="I259" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -9343,10 +8824,13 @@
         <v>20</v>
       </c>
       <c r="I260" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -9372,10 +8856,13 @@
         <v>51</v>
       </c>
       <c r="I261" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -9401,10 +8888,13 @@
         <v>38</v>
       </c>
       <c r="I262" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J262">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -9430,10 +8920,13 @@
         <v>16</v>
       </c>
       <c r="I263" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J263">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -9459,10 +8952,13 @@
         <v>28</v>
       </c>
       <c r="I264" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J264">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -9488,10 +8984,13 @@
         <v>53</v>
       </c>
       <c r="I265" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J265">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -9517,10 +9016,13 @@
         <v>36</v>
       </c>
       <c r="I266" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J266">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -9546,10 +9048,13 @@
         <v>61</v>
       </c>
       <c r="I267" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -9575,10 +9080,13 @@
         <v>59</v>
       </c>
       <c r="I268" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -9604,10 +9112,13 @@
         <v>67</v>
       </c>
       <c r="I269" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J269">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -9633,10 +9144,13 @@
         <v>30</v>
       </c>
       <c r="I270" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -9662,10 +9176,13 @@
         <v>40</v>
       </c>
       <c r="I271" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J271">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -9691,7 +9208,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -9717,7 +9234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -9743,7 +9260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>274</v>
       </c>
@@ -9769,7 +9286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
         <v>275</v>
       </c>
@@ -9795,7 +9312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
         <v>276</v>
       </c>
@@ -9821,7 +9338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
         <v>277</v>
       </c>
@@ -9847,7 +9364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
         <v>278</v>
       </c>
@@ -9873,7 +9390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
         <v>279</v>
       </c>
@@ -9899,7 +9416,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
         <v>280</v>
       </c>
@@ -9925,7 +9442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>281</v>
       </c>
@@ -9951,10 +9468,13 @@
         <v>16</v>
       </c>
       <c r="I282" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>282</v>
       </c>
@@ -9980,10 +9500,13 @@
         <v>57</v>
       </c>
       <c r="I283" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>283</v>
       </c>
@@ -10009,10 +9532,13 @@
         <v>30</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>284</v>
       </c>
@@ -10038,10 +9564,13 @@
         <v>20</v>
       </c>
       <c r="I285" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J285">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>285</v>
       </c>
@@ -10067,10 +9596,13 @@
         <v>53</v>
       </c>
       <c r="I286" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>286</v>
       </c>
@@ -10096,10 +9628,13 @@
         <v>28</v>
       </c>
       <c r="I287" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J287">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>287</v>
       </c>
@@ -10125,10 +9660,13 @@
         <v>32</v>
       </c>
       <c r="I288" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>288</v>
       </c>
@@ -10154,10 +9692,13 @@
         <v>36</v>
       </c>
       <c r="I289" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J289">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>289</v>
       </c>
@@ -10183,10 +9724,13 @@
         <v>61</v>
       </c>
       <c r="I290" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J290">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>290</v>
       </c>
@@ -10212,10 +9756,13 @@
         <v>40</v>
       </c>
       <c r="I291" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J291">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>291</v>
       </c>
@@ -10241,10 +9788,13 @@
         <v>67</v>
       </c>
       <c r="I292" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J292">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>292</v>
       </c>
@@ -10270,10 +9820,13 @@
         <v>51</v>
       </c>
       <c r="I293" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J293">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>293</v>
       </c>
@@ -10299,10 +9852,13 @@
         <v>72</v>
       </c>
       <c r="I294" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J294">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>294</v>
       </c>
@@ -10328,10 +9884,13 @@
         <v>38</v>
       </c>
       <c r="I295" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J295">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -10357,10 +9916,13 @@
         <v>59</v>
       </c>
       <c r="I296" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J296">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>296</v>
       </c>
@@ -10386,10 +9948,13 @@
         <v>55</v>
       </c>
       <c r="I297" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J297">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -10415,7 +9980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -10441,7 +10006,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -10467,7 +10032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -10493,7 +10058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -10519,7 +10084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -10545,7 +10110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -10987,7 +10552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -11013,10 +10578,13 @@
         <v>32</v>
       </c>
       <c r="I321" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -11042,10 +10610,13 @@
         <v>28</v>
       </c>
       <c r="I322" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J322">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -11071,10 +10642,13 @@
         <v>57</v>
       </c>
       <c r="I323" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J323">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -11100,10 +10674,13 @@
         <v>61</v>
       </c>
       <c r="I324" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J324">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -11129,10 +10706,13 @@
         <v>20</v>
       </c>
       <c r="I325" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J325">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -11158,10 +10738,13 @@
         <v>59</v>
       </c>
       <c r="I326" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J326">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -11187,10 +10770,13 @@
         <v>51</v>
       </c>
       <c r="I327" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J327">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -11216,10 +10802,13 @@
         <v>67</v>
       </c>
       <c r="I328" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J328">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -11245,10 +10834,13 @@
         <v>53</v>
       </c>
       <c r="I329" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J329">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -11274,10 +10866,13 @@
         <v>16</v>
       </c>
       <c r="I330" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J330">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -11303,10 +10898,13 @@
         <v>40</v>
       </c>
       <c r="I331" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J331">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -11332,10 +10930,13 @@
         <v>30</v>
       </c>
       <c r="I332" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -11361,10 +10962,13 @@
         <v>38</v>
       </c>
       <c r="I333" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J333">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -11390,10 +10994,13 @@
         <v>36</v>
       </c>
       <c r="I334" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J334">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -11419,7 +11026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -11445,7 +11052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -11471,7 +11078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -11497,7 +11104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -11523,7 +11130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -11549,7 +11156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -11575,7 +11182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -11601,10 +11208,13 @@
         <v>36</v>
       </c>
       <c r="I342" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J342">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -11630,10 +11240,13 @@
         <v>61</v>
       </c>
       <c r="I343" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J343">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -11659,10 +11272,13 @@
         <v>59</v>
       </c>
       <c r="I344" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J344">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -11688,10 +11304,13 @@
         <v>53</v>
       </c>
       <c r="I345" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J345">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -11717,10 +11336,13 @@
         <v>20</v>
       </c>
       <c r="I346" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J346">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -11746,10 +11368,13 @@
         <v>72</v>
       </c>
       <c r="I347" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J347">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -11775,10 +11400,13 @@
         <v>40</v>
       </c>
       <c r="I348" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J348">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -11804,10 +11432,13 @@
         <v>38</v>
       </c>
       <c r="I349" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J349">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -11833,10 +11464,13 @@
         <v>16</v>
       </c>
       <c r="I350" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J350">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -11862,10 +11496,13 @@
         <v>57</v>
       </c>
       <c r="I351" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J351">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -11891,10 +11528,13 @@
         <v>67</v>
       </c>
       <c r="I352" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J352">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>352</v>
       </c>
@@ -11920,10 +11560,13 @@
         <v>30</v>
       </c>
       <c r="I353" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J353">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>353</v>
       </c>
@@ -11949,10 +11592,13 @@
         <v>55</v>
       </c>
       <c r="I354" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J354">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>354</v>
       </c>
@@ -11978,10 +11624,13 @@
         <v>51</v>
       </c>
       <c r="I355" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J355">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>355</v>
       </c>
@@ -12007,10 +11656,13 @@
         <v>28</v>
       </c>
       <c r="I356" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J356">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>356</v>
       </c>
@@ -12036,10 +11688,13 @@
         <v>32</v>
       </c>
       <c r="I357" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J357">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>357</v>
       </c>
@@ -12065,7 +11720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>358</v>
       </c>
@@ -12091,7 +11746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>359</v>
       </c>
@@ -12117,7 +11772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>360</v>
       </c>
@@ -12143,7 +11798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -12169,7 +11824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -12195,7 +11850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -12221,7 +11876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>364</v>
       </c>
@@ -12247,7 +11902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>365</v>
       </c>
@@ -12273,7 +11928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>366</v>
       </c>
@@ -12299,7 +11954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -12325,7 +11980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>368</v>
       </c>
@@ -12351,10 +12006,13 @@
         <v>40</v>
       </c>
       <c r="I369" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J369">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>369</v>
       </c>
@@ -12380,10 +12038,13 @@
         <v>59</v>
       </c>
       <c r="I370" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J370">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>370</v>
       </c>
@@ -12409,10 +12070,13 @@
         <v>36</v>
       </c>
       <c r="I371" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J371">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>371</v>
       </c>
@@ -12438,10 +12102,13 @@
         <v>20</v>
       </c>
       <c r="I372" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J372">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>372</v>
       </c>
@@ -12467,10 +12134,13 @@
         <v>61</v>
       </c>
       <c r="I373" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J373">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -12496,10 +12166,13 @@
         <v>30</v>
       </c>
       <c r="I374" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J374">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>374</v>
       </c>
@@ -12525,10 +12198,13 @@
         <v>16</v>
       </c>
       <c r="I375" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J375">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>375</v>
       </c>
@@ -12554,10 +12230,13 @@
         <v>53</v>
       </c>
       <c r="I376" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J376">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>376</v>
       </c>
@@ -12583,10 +12262,13 @@
         <v>67</v>
       </c>
       <c r="I377" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J377">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>377</v>
       </c>
@@ -12612,10 +12294,13 @@
         <v>51</v>
       </c>
       <c r="I378" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J378">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>378</v>
       </c>
@@ -12641,10 +12326,13 @@
         <v>38</v>
       </c>
       <c r="I379" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J379">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>379</v>
       </c>
@@ -12670,10 +12358,13 @@
         <v>57</v>
       </c>
       <c r="I380" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J380">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>380</v>
       </c>
@@ -12699,10 +12390,13 @@
         <v>32</v>
       </c>
       <c r="I381" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J381">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>381</v>
       </c>
@@ -12728,10 +12422,13 @@
         <v>28</v>
       </c>
       <c r="I382" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J382">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -12757,10 +12454,13 @@
         <v>28</v>
       </c>
       <c r="I383" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J383">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -12786,10 +12486,13 @@
         <v>59</v>
       </c>
       <c r="I384" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J384">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -12815,10 +12518,13 @@
         <v>40</v>
       </c>
       <c r="I385" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J385">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>385</v>
       </c>
@@ -12844,10 +12550,13 @@
         <v>51</v>
       </c>
       <c r="I386" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J386">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>386</v>
       </c>
@@ -12873,10 +12582,13 @@
         <v>36</v>
       </c>
       <c r="I387" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J387">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>387</v>
       </c>
@@ -12902,10 +12614,13 @@
         <v>20</v>
       </c>
       <c r="I388" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>388</v>
       </c>
@@ -12931,10 +12646,13 @@
         <v>67</v>
       </c>
       <c r="I389" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J389">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>389</v>
       </c>
@@ -12960,10 +12678,13 @@
         <v>53</v>
       </c>
       <c r="I390" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J390">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>390</v>
       </c>
@@ -12989,10 +12710,13 @@
         <v>61</v>
       </c>
       <c r="I391" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J391">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>391</v>
       </c>
@@ -13018,10 +12742,13 @@
         <v>30</v>
       </c>
       <c r="I392" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J392">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>392</v>
       </c>
@@ -13047,10 +12774,13 @@
         <v>32</v>
       </c>
       <c r="I393" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J393">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>393</v>
       </c>
@@ -13076,10 +12806,13 @@
         <v>72</v>
       </c>
       <c r="I394" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J394">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -13105,10 +12838,13 @@
         <v>16</v>
       </c>
       <c r="I395" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J395">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -13134,10 +12870,13 @@
         <v>57</v>
       </c>
       <c r="I396" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J396">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -13163,10 +12902,13 @@
         <v>38</v>
       </c>
       <c r="I397" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J397">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -13192,10 +12934,13 @@
         <v>55</v>
       </c>
       <c r="I398" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J398">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
         <v>398</v>
       </c>
@@ -13221,7 +12966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
         <v>399</v>
       </c>
@@ -13247,7 +12992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
         <v>400</v>
       </c>
@@ -13273,7 +13018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="6">
         <v>401</v>
       </c>
@@ -13299,7 +13044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="6">
         <v>402</v>
       </c>
@@ -13325,7 +13070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="7">
         <v>403</v>
       </c>
@@ -13351,10 +13096,13 @@
         <v>38</v>
       </c>
       <c r="I404" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J404">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="7">
         <v>404</v>
       </c>
@@ -13380,10 +13128,13 @@
         <v>57</v>
       </c>
       <c r="I405" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J405">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
         <v>405</v>
       </c>
@@ -13409,10 +13160,13 @@
         <v>53</v>
       </c>
       <c r="I406" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J406">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
         <v>406</v>
       </c>
@@ -13438,10 +13192,13 @@
         <v>51</v>
       </c>
       <c r="I407" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J407">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="7">
         <v>407</v>
       </c>
@@ -13467,10 +13224,13 @@
         <v>36</v>
       </c>
       <c r="I408" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J408">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
         <v>408</v>
       </c>
@@ -13496,10 +13256,13 @@
         <v>40</v>
       </c>
       <c r="I409" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J409">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="7">
         <v>409</v>
       </c>
@@ -13525,10 +13288,13 @@
         <v>28</v>
       </c>
       <c r="I410" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J410">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="7">
         <v>410</v>
       </c>
@@ -13554,10 +13320,13 @@
         <v>20</v>
       </c>
       <c r="I411" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J411">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="7">
         <v>411</v>
       </c>
@@ -13583,10 +13352,13 @@
         <v>30</v>
       </c>
       <c r="I412" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J412">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="7">
         <v>412</v>
       </c>
@@ -13612,10 +13384,13 @@
         <v>61</v>
       </c>
       <c r="I413" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J413">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="7">
         <v>413</v>
       </c>
@@ -13641,10 +13416,13 @@
         <v>59</v>
       </c>
       <c r="I414" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J414">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="7">
         <v>414</v>
       </c>
@@ -13670,10 +13448,13 @@
         <v>32</v>
       </c>
       <c r="I415" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J415">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="7">
         <v>415</v>
       </c>
@@ -13699,10 +13480,13 @@
         <v>67</v>
       </c>
       <c r="I416" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J416">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="8">
         <v>416</v>
       </c>
@@ -13728,10 +13512,13 @@
         <v>20</v>
       </c>
       <c r="I417" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J417">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="8">
         <v>417</v>
       </c>
@@ -13757,10 +13544,13 @@
         <v>67</v>
       </c>
       <c r="I418" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J418">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="8">
         <v>418</v>
       </c>
@@ -13786,10 +13576,13 @@
         <v>30</v>
       </c>
       <c r="I419" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J419">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="8">
         <v>419</v>
       </c>
@@ -13815,10 +13608,13 @@
         <v>16</v>
       </c>
       <c r="I420" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J420">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="8">
         <v>420</v>
       </c>
@@ -13844,10 +13640,13 @@
         <v>32</v>
       </c>
       <c r="I421" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J421">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="8">
         <v>421</v>
       </c>
@@ -13873,10 +13672,13 @@
         <v>36</v>
       </c>
       <c r="I422" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J422">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="8">
         <v>422</v>
       </c>
@@ -13902,10 +13704,13 @@
         <v>55</v>
       </c>
       <c r="I423" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J423">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="8">
         <v>423</v>
       </c>
@@ -13931,10 +13736,13 @@
         <v>61</v>
       </c>
       <c r="I424" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J424">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="8">
         <v>424</v>
       </c>
@@ -13960,10 +13768,13 @@
         <v>57</v>
       </c>
       <c r="I425" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J425">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="8">
         <v>425</v>
       </c>
@@ -13989,10 +13800,13 @@
         <v>38</v>
       </c>
       <c r="I426" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J426">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="8">
         <v>426</v>
       </c>
@@ -14018,10 +13832,13 @@
         <v>51</v>
       </c>
       <c r="I427" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J427">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="8">
         <v>427</v>
       </c>
@@ -14047,10 +13864,13 @@
         <v>53</v>
       </c>
       <c r="I428" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J428">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="8">
         <v>428</v>
       </c>
@@ -14076,10 +13896,13 @@
         <v>59</v>
       </c>
       <c r="I429" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J429">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="8">
         <v>429</v>
       </c>
@@ -14105,10 +13928,13 @@
         <v>40</v>
       </c>
       <c r="I430" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J430">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="8">
         <v>430</v>
       </c>
@@ -14134,10 +13960,13 @@
         <v>28</v>
       </c>
       <c r="I431" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J431">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="8">
         <v>431</v>
       </c>
@@ -14163,10 +13992,13 @@
         <v>72</v>
       </c>
       <c r="I432" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J432">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="9">
         <v>432</v>
       </c>
@@ -14192,10 +14024,13 @@
         <v>28</v>
       </c>
       <c r="I433" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J433">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="9">
         <v>433</v>
       </c>
@@ -14221,10 +14056,13 @@
         <v>57</v>
       </c>
       <c r="I434" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J434">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="9">
         <v>434</v>
       </c>
@@ -14250,10 +14088,13 @@
         <v>51</v>
       </c>
       <c r="I435" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J435">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="9">
         <v>435</v>
       </c>
@@ -14279,10 +14120,13 @@
         <v>30</v>
       </c>
       <c r="I436" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J436">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="9">
         <v>436</v>
       </c>
@@ -14308,10 +14152,13 @@
         <v>16</v>
       </c>
       <c r="I437" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J437">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="9">
         <v>437</v>
       </c>
@@ -14337,10 +14184,13 @@
         <v>72</v>
       </c>
       <c r="I438" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J438">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="9">
         <v>438</v>
       </c>
@@ -14366,10 +14216,13 @@
         <v>53</v>
       </c>
       <c r="I439" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J439">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="9">
         <v>439</v>
       </c>
@@ -14395,10 +14248,13 @@
         <v>20</v>
       </c>
       <c r="I440" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J440">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="9">
         <v>440</v>
       </c>
@@ -14424,10 +14280,13 @@
         <v>40</v>
       </c>
       <c r="I441" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J441">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="9">
         <v>441</v>
       </c>
@@ -14453,10 +14312,13 @@
         <v>67</v>
       </c>
       <c r="I442" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J442">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="9">
         <v>442</v>
       </c>
@@ -14482,10 +14344,13 @@
         <v>61</v>
       </c>
       <c r="I443" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J443">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="9">
         <v>443</v>
       </c>
@@ -14511,10 +14376,13 @@
         <v>36</v>
       </c>
       <c r="I444" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J444">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="9">
         <v>444</v>
       </c>
@@ -14540,10 +14408,13 @@
         <v>59</v>
       </c>
       <c r="I445" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J445">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="9">
         <v>445</v>
       </c>
@@ -14569,10 +14440,13 @@
         <v>38</v>
       </c>
       <c r="I446" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J446">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="9">
         <v>446</v>
       </c>
@@ -14598,10 +14472,13 @@
         <v>55</v>
       </c>
       <c r="I447" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J447">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="9">
         <v>447</v>
       </c>
@@ -14627,10 +14504,13 @@
         <v>32</v>
       </c>
       <c r="I448" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J448">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -14656,10 +14536,13 @@
         <v>36</v>
       </c>
       <c r="I449" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J449">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -14685,10 +14568,13 @@
         <v>16</v>
       </c>
       <c r="I450" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J450">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -14714,10 +14600,13 @@
         <v>32</v>
       </c>
       <c r="I451" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J451">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -14743,10 +14632,13 @@
         <v>72</v>
       </c>
       <c r="I452" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J452">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -14772,10 +14664,13 @@
         <v>20</v>
       </c>
       <c r="I453" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J453">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -14801,10 +14696,13 @@
         <v>40</v>
       </c>
       <c r="I454" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J454">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -14830,10 +14728,13 @@
         <v>28</v>
       </c>
       <c r="I455" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J455">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -14859,10 +14760,13 @@
         <v>57</v>
       </c>
       <c r="I456" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J456">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -14888,10 +14792,13 @@
         <v>38</v>
       </c>
       <c r="I457" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J457">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -14917,10 +14824,13 @@
         <v>67</v>
       </c>
       <c r="I458" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J458">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -14946,10 +14856,13 @@
         <v>61</v>
       </c>
       <c r="I459" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J459">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -14975,10 +14888,13 @@
         <v>51</v>
       </c>
       <c r="I460" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J460">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -15004,10 +14920,13 @@
         <v>59</v>
       </c>
       <c r="I461" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J461">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -15033,10 +14952,13 @@
         <v>55</v>
       </c>
       <c r="I462" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J462">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -15062,10 +14984,13 @@
         <v>36</v>
       </c>
       <c r="I463" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J463">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -15091,10 +15016,13 @@
         <v>55</v>
       </c>
       <c r="I464" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J464">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -15120,10 +15048,13 @@
         <v>28</v>
       </c>
       <c r="I465" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J465">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -15149,10 +15080,13 @@
         <v>32</v>
       </c>
       <c r="I466" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J466">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -15178,10 +15112,13 @@
         <v>59</v>
       </c>
       <c r="I467" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J467">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -15207,10 +15144,13 @@
         <v>20</v>
       </c>
       <c r="I468" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J468">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -15236,10 +15176,13 @@
         <v>61</v>
       </c>
       <c r="I469" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J469">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -15265,10 +15208,13 @@
         <v>72</v>
       </c>
       <c r="I470" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J470">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -15294,10 +15240,13 @@
         <v>38</v>
       </c>
       <c r="I471" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J471">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -15323,10 +15272,13 @@
         <v>51</v>
       </c>
       <c r="I472" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J472">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -15352,10 +15304,13 @@
         <v>53</v>
       </c>
       <c r="I473" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J473">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -15381,10 +15336,13 @@
         <v>30</v>
       </c>
       <c r="I474" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J474">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -15410,10 +15368,13 @@
         <v>16</v>
       </c>
       <c r="I475" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J475">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -15439,10 +15400,13 @@
         <v>57</v>
       </c>
       <c r="I476" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J476">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -15468,10 +15432,13 @@
         <v>40</v>
       </c>
       <c r="I477" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J477">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -15497,10 +15464,13 @@
         <v>67</v>
       </c>
       <c r="I478" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J478">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>478</v>
       </c>
@@ -15526,10 +15496,13 @@
         <v>57</v>
       </c>
       <c r="I479" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J479">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>479</v>
       </c>
@@ -15555,10 +15528,13 @@
         <v>20</v>
       </c>
       <c r="I480" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J480">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>480</v>
       </c>
@@ -15584,10 +15560,13 @@
         <v>28</v>
       </c>
       <c r="I481" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J481">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>481</v>
       </c>
@@ -15613,10 +15592,13 @@
         <v>36</v>
       </c>
       <c r="I482" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J482">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>482</v>
       </c>
@@ -15642,10 +15624,13 @@
         <v>59</v>
       </c>
       <c r="I483" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J483">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>483</v>
       </c>
@@ -15671,10 +15656,13 @@
         <v>16</v>
       </c>
       <c r="I484" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J484">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>484</v>
       </c>
@@ -15700,10 +15688,13 @@
         <v>32</v>
       </c>
       <c r="I485" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J485">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>485</v>
       </c>
@@ -15729,10 +15720,13 @@
         <v>40</v>
       </c>
       <c r="I486" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J486">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
         <v>486</v>
       </c>
@@ -15758,10 +15752,13 @@
         <v>30</v>
       </c>
       <c r="I487" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J487">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
         <v>487</v>
       </c>
@@ -15787,10 +15784,13 @@
         <v>51</v>
       </c>
       <c r="I488" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J488">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -15816,10 +15816,13 @@
         <v>53</v>
       </c>
       <c r="I489" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J489">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>489</v>
       </c>
@@ -15845,10 +15848,13 @@
         <v>67</v>
       </c>
       <c r="I490" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J490">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>490</v>
       </c>
@@ -15874,10 +15880,13 @@
         <v>61</v>
       </c>
       <c r="I491" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J491">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>491</v>
       </c>
@@ -15903,10 +15912,13 @@
         <v>38</v>
       </c>
       <c r="I492" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J492">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>492</v>
       </c>
@@ -15932,10 +15944,13 @@
         <v>55</v>
       </c>
       <c r="I493" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J493">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>493</v>
       </c>
@@ -15961,10 +15976,13 @@
         <v>72</v>
       </c>
       <c r="I494" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J494">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="4">
         <v>494</v>
       </c>
@@ -15990,10 +16008,13 @@
         <v>61</v>
       </c>
       <c r="I495" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J495">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="4">
         <v>495</v>
       </c>
@@ -16019,10 +16040,13 @@
         <v>53</v>
       </c>
       <c r="I496" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J496">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="4">
         <v>496</v>
       </c>
@@ -16048,10 +16072,13 @@
         <v>67</v>
       </c>
       <c r="I497" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J497">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
         <v>497</v>
       </c>
@@ -16077,10 +16104,13 @@
         <v>38</v>
       </c>
       <c r="I498" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J498">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="4">
         <v>498</v>
       </c>
@@ -16106,10 +16136,13 @@
         <v>59</v>
       </c>
       <c r="I499" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J499">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <v>499</v>
       </c>
@@ -16135,10 +16168,13 @@
         <v>72</v>
       </c>
       <c r="I500" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J500">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="4">
         <v>500</v>
       </c>
@@ -16164,10 +16200,13 @@
         <v>30</v>
       </c>
       <c r="I501" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J501">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="4">
         <v>501</v>
       </c>
@@ -16193,10 +16232,13 @@
         <v>40</v>
       </c>
       <c r="I502" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J502">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="4">
         <v>502</v>
       </c>
@@ -16222,10 +16264,13 @@
         <v>36</v>
       </c>
       <c r="I503" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J503">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="4">
         <v>503</v>
       </c>
@@ -16251,10 +16296,13 @@
         <v>51</v>
       </c>
       <c r="I504" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J504">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="4">
         <v>504</v>
       </c>
@@ -16280,10 +16328,13 @@
         <v>57</v>
       </c>
       <c r="I505" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J505">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="4">
         <v>505</v>
       </c>
@@ -16309,10 +16360,13 @@
         <v>32</v>
       </c>
       <c r="I506" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J506">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="4">
         <v>506</v>
       </c>
@@ -16338,10 +16392,13 @@
         <v>55</v>
       </c>
       <c r="I507" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J507">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="4">
         <v>507</v>
       </c>
@@ -16367,10 +16424,13 @@
         <v>20</v>
       </c>
       <c r="I508" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J508">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="4">
         <v>508</v>
       </c>
@@ -16396,10 +16456,13 @@
         <v>16</v>
       </c>
       <c r="I509" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J509">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="4">
         <v>509</v>
       </c>
@@ -16425,10 +16488,13 @@
         <v>28</v>
       </c>
       <c r="I510" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J510">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="5">
         <v>510</v>
       </c>
@@ -16454,10 +16520,13 @@
         <v>30</v>
       </c>
       <c r="I511" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J511">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="5">
         <v>511</v>
       </c>
@@ -16483,10 +16552,13 @@
         <v>36</v>
       </c>
       <c r="I512" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J512">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="5">
         <v>512</v>
       </c>
@@ -16512,10 +16584,13 @@
         <v>40</v>
       </c>
       <c r="I513" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J513">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="5">
         <v>513</v>
       </c>
@@ -16541,10 +16616,13 @@
         <v>72</v>
       </c>
       <c r="I514" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J514">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="5">
         <v>514</v>
       </c>
@@ -16570,10 +16648,13 @@
         <v>16</v>
       </c>
       <c r="I515" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J515">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="5">
         <v>515</v>
       </c>
@@ -16599,10 +16680,13 @@
         <v>51</v>
       </c>
       <c r="I516" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J516">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="5">
         <v>516</v>
       </c>
@@ -16628,10 +16712,13 @@
         <v>67</v>
       </c>
       <c r="I517" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J517">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="5">
         <v>517</v>
       </c>
@@ -16657,10 +16744,13 @@
         <v>53</v>
       </c>
       <c r="I518" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J518">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="5">
         <v>518</v>
       </c>
@@ -16686,10 +16776,13 @@
         <v>32</v>
       </c>
       <c r="I519" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J519">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="5">
         <v>519</v>
       </c>
@@ -16715,10 +16808,13 @@
         <v>20</v>
       </c>
       <c r="I520" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J520">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
@@ -16744,10 +16840,13 @@
         <v>59</v>
       </c>
       <c r="I521" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J521">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
@@ -16773,10 +16872,13 @@
         <v>57</v>
       </c>
       <c r="I522" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J522">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
@@ -16802,10 +16904,13 @@
         <v>38</v>
       </c>
       <c r="I523" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J523">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
@@ -16831,10 +16936,13 @@
         <v>55</v>
       </c>
       <c r="I524" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="J524">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
@@ -16860,13 +16968,13 @@
         <v>61</v>
       </c>
       <c r="I525" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="J525">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="AG2:AG21">
-    <sortCondition ref="AG2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
